--- a/log/log_201608040108_胡曦伟.xlsx
+++ b/log/log_201608040108_胡曦伟.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>日期</t>
   </si>
@@ -358,6 +358,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.Jenkins安装完成，但插件未下载
+2.基本了解ext开发形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成项目立项书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
@@ -387,13 +396,132 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>2.学习ext编程网页</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Jenkins安装完成，但插件未下载
-2.基本了解ext开发形式</t>
+      <t>2.学习ext编程网页
+3.写项目立项书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.基本完成项目立项书文档中还有
+不了解的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决文档中剩余问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.同组内成员讨论接下来的计划，
+完善项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划基本确立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续项目立项
+2.分配完成文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待继续完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.立项发生分歧
+2.文档完成进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.解决分歧
+2.文档开始困难，进度缓慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Jenkins配置，并发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Jenkins发布失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续阅读文档，查找资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.了解Jenkins功能，并且发布
+2.选择前端框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Jenkins发布成功
+2.了解bootstrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Jenkins成功
+2.基本了解bootstrap优劣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续学习bootstrap
+2.了解其基本组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.大致了解标题栏下拉菜单等组件
+2.同时了解基本内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.深入学习，了解内容
+2.继续发现框架优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.service了解从数据库调用数据基本内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.成功但无法与web相连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.get post请求继续了解
+2.学习如何网页链接数据库
+3.学习后台操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.小组成员间文档的互相交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.互相文档完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.互相交流完善成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.总结报告开始进行中
+2.小组完善最终情况，等待检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.总结报告进行中
+2.最终目标明确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,。继续总结报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -448,9 +576,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -459,6 +584,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -893,10 +1024,10 @@
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E10" t="s">
@@ -910,13 +1041,13 @@
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -927,13 +1058,13 @@
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="27" customHeight="1">
       <c r="A13" s="1">
@@ -942,22 +1073,176 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.8" customHeight="1">
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="37.200000000000003" customHeight="1">
       <c r="A14" s="1">
-        <v>43274</v>
+        <v>43276</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="31.2" customHeight="1">
       <c r="A15" s="1">
-        <v>43275</v>
+        <v>43277</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
+      <c r="C15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8">
+      <c r="A17" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8">
+      <c r="A18" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2">
+      <c r="A19" s="1">
+        <v>43283</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43284</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8">
+      <c r="A21" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>43286</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>43287</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="E24" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
